--- a/siv_game/Data/words_data.xlsx
+++ b/siv_game/Data/words_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>word_type</t>
   </si>
@@ -60,7 +60,7 @@
     <t>HIT!</t>
   </si>
   <si>
-    <t>PAW!</t>
+    <t>P...AW!</t>
   </si>
   <si>
     <t>WORDS_TYPE_PLAYER_ATTACK</t>
@@ -75,7 +75,7 @@
     <t>Fire!</t>
   </si>
   <si>
-    <t>IDC</t>
+    <t>&gt; &lt;!</t>
   </si>
   <si>
     <t>WORDS_TYPE_PLAYER_HARD_ATTACK</t>
@@ -105,7 +105,7 @@
     <t>Help!</t>
   </si>
   <si>
-    <t>QQ</t>
+    <t>QAQ</t>
   </si>
   <si>
     <t>WORDS_TYPE_BULLET_BOOM</t>
@@ -258,6 +258,78 @@
     <t>back</t>
   </si>
   <si>
+    <t>WORDS_TYPE_GAME_OVER_TITLE_NAME</t>
+  </si>
+  <si>
+    <t>終わり</t>
+  </si>
+  <si>
+    <t>搞掂</t>
+  </si>
+  <si>
+    <t>Game OVER</t>
+  </si>
+  <si>
+    <t>OvO</t>
+  </si>
+  <si>
+    <t>WORDS_TYPE_PLAYER_STATE_HP_NAME</t>
+  </si>
+  <si>
+    <t>命</t>
+  </si>
+  <si>
+    <t>条血</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>WORDS_TYPE_PLAYER_STATE_BULLET_NUMBER_NAME</t>
+  </si>
+  <si>
+    <t>玉数</t>
+  </si>
+  <si>
+    <t>子弹</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>🥚</t>
+  </si>
+  <si>
+    <t>WORDS_TYPE_PLAYER_STATE_TIME_NAME</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>钟</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>⏰</t>
+  </si>
+  <si>
+    <t>WORDS_TYPE_SCORE_NAME</t>
+  </si>
+  <si>
+    <t>点数</t>
+  </si>
+  <si>
+    <t>成绩</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
     <t>WORDS_TYPE_GAME_TITLE_NAME</t>
   </si>
   <si>
@@ -270,7 +342,7 @@
     <t>Battle</t>
   </si>
   <si>
-    <t>Baototmle</t>
+    <t>FIGHT!</t>
   </si>
 </sst>
 </file>
@@ -283,14 +355,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,48 +813,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,97 +867,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1245,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1546,6 +1611,91 @@
       </c>
       <c r="E17" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/siv_game/Data/words_data.xlsx
+++ b/siv_game/Data/words_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
     <t>終わり</t>
   </si>
   <si>
-    <t>搞掂</t>
+    <t>着草</t>
   </si>
   <si>
     <t>Game OVER</t>
@@ -324,7 +324,7 @@
     <t>点数</t>
   </si>
   <si>
-    <t>成绩</t>
+    <t>成績</t>
   </si>
   <si>
     <t>Score</t>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/siv_game/Data/words_data.xlsx
+++ b/siv_game/Data/words_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -333,16 +333,17 @@
     <t>WORDS_TYPE_GAME_TITLE_NAME</t>
   </si>
   <si>
-    <t>戦闘</t>
-  </si>
-  <si>
-    <t>打交</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>FIGHT!</t>
+    <t xml:space="preserve">ボボボ!
+</t>
+  </si>
+  <si>
+    <t>打交!</t>
+  </si>
+  <si>
+    <t>BoomBoomBoom!</t>
+  </si>
+  <si>
+    <t>BBBB!</t>
   </si>
 </sst>
 </file>
@@ -958,9 +959,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1313,7 +1317,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1681,11 +1685,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" ht="27" spans="1:5">
       <c r="A22" t="s">
         <v>104</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C22" t="s">
